--- a/5TIB2/Egzamin próbny/6 - Mateusz Makówka 5TIB/INF_03_2024_06_2_SG_zo.xlsx
+++ b/5TIB2/Egzamin próbny/6 - Mateusz Makówka 5TIB/INF_03_2024_06_2_SG_zo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15405" windowHeight="13500"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Plagiat: </t>
+  </si>
+  <si>
+    <t>https://github.com/Chr1skyy/Egzamin-Zawodowy-E14-EE09-INF03/blob/main/inf03/inf03_2024_06_02/rozwiazanie/main.js</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +52,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -68,9 +88,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -463,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J9:L82"/>
+  <dimension ref="C9:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1024,16 +1045,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" ht="23.45" customHeight="1"/>
-    <row r="66" ht="23.45" customHeight="1"/>
-    <row r="67" ht="37.15" customHeight="1"/>
-    <row r="69" ht="34.9" customHeight="1"/>
-    <row r="70" ht="25.15" customHeight="1"/>
-    <row r="73" ht="21.6" customHeight="1"/>
-    <row r="74" ht="24" customHeight="1"/>
-    <row r="77" ht="23.45" customHeight="1"/>
-    <row r="78" ht="23.45" customHeight="1"/>
-    <row r="80" ht="34.9" customHeight="1"/>
+    <row r="65" spans="3:3" ht="23.45" customHeight="1"/>
+    <row r="66" spans="3:3" ht="23.45" customHeight="1"/>
+    <row r="67" spans="3:3" ht="37.15" customHeight="1">
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="15.75">
+      <c r="C68" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" ht="34.9" customHeight="1"/>
+    <row r="70" spans="3:3" ht="25.15" customHeight="1"/>
+    <row r="73" spans="3:3" ht="21.6" customHeight="1"/>
+    <row r="74" spans="3:3" ht="24" customHeight="1"/>
+    <row r="77" spans="3:3" ht="23.45" customHeight="1"/>
+    <row r="78" spans="3:3" ht="23.45" customHeight="1"/>
+    <row r="80" spans="3:3" ht="34.9" customHeight="1"/>
     <row r="81" ht="24" customHeight="1"/>
     <row r="82" ht="25.9" customHeight="1"/>
   </sheetData>
